--- a/Randomizer Functions/Randomizer Functions.xlsx
+++ b/Randomizer Functions/Randomizer Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Lambda-Development\Randomizer Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50667ABF-BE64-4699-A9B9-C08765F44D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD268E6F-41F5-48EF-8484-ACAEF6106FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="1035" windowWidth="26370" windowHeight="14970" xr2:uid="{193F113F-0D57-DE43-BCDF-29EB7640E8F6}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="RND_BY_SEED">_xlfn.LAMBDA(_xlpm.seed, _xlfn.LET(_xlpm.output, MOD(48271 * _xlpm.seed, 2 ^ 31 - 1), _xlpm.output))</definedName>
     <definedName name="RND_DIGITS">_xlfn.LAMBDA(_xlop.len, _xlfn.LET(_xlpm.len, IF(_xlfn.ISOMITTED(_xlpm.len), 5, _xlpm.len), _xlpm.valid, ISNUMBER(_xlpm.len), IF(NOT(_xlpm.valid), SQRT("a"), IF(_xlpm.len &lt; 1, SQRT(-1), _xlfn.LET(_xlpm.min, IF(_xlpm.len = 1, 0, 10 ^ (_xlpm.len - 1)), _xlpm.max, IF(_xlpm.len = 1, 9, 10 ^ _xlpm.len - 1), RANDBETWEEN(_xlpm.min, _xlpm.max))))))</definedName>
     <definedName name="RND_MIX">_xlfn.LAMBDA(_xlop.len, _xlfn.LET(_xlpm.len, IF(_xlfn.ISOMITTED(_xlpm.len), 5, _xlpm.len), _xlpm.valid, ISNUMBER(_xlpm.len), IF(NOT(_xlpm.valid), SQRT("a"), IF(_xlpm.len &lt; 1, SQRT(-1), _xlfn.LET(_xlpm.len, INT(_xlpm.len), _xlpm.small, _xlfn.SEQUENCE(26, , 97), _xlpm.large, _xlfn.SEQUENCE(26, , 65), _xlpm.numbers, _xlfn.SEQUENCE(10, , 48), _xlpm.extras, {126;33;64;35;36;37;94;38;42;40;41;95;45;43;61;123;91;125;93;124;92;58;59;60;44;62;46;63}, _xlpm.all_list, _xlfn.VSTACK(_xlpm.small, _xlpm.large, _xlpm.numbers, _xlpm.extras), _xlpm.rand_list, INDEX(_xlpm.all_list, _xlfn.RANDARRAY(_xlpm.len, , 1, COUNTA(_xlpm.all_list), TRUE)), _xlpm.output, _xlfn.CONCAT(_xlfn.BYROW(_xlpm.rand_list, _xlfn.LAMBDA(_xlpm.q, CHAR(_xlpm.q)))), _xlpm.output)))))</definedName>
     <definedName name="RND_STR">_xlfn.LAMBDA(_xlop.len,_xlop.mode, _xlfn.LET(_xlpm.mode, IF(OR(_xlfn.ISOMITTED(_xlpm.mode), _xlpm.mode &gt; 2), 0, _xlpm.mode), _xlpm.len, IF(OR(_xlfn.ISOMITTED(_xlpm.len), _xlpm.len = 0), 5, _xlpm.len), _xlpm.valid, ISNUMBER(_xlpm.len) * ISNUMBER(_xlpm.mode), IF(NOT(_xlpm.valid), SQRT("a"), IF(_xlpm.len &lt; 1, SQRT(-1), _xlfn.LET(_xlpm.len, INT(_xlpm.len), _xlpm.small, _xlfn.SEQUENCE(26, , 97, 1), _xlpm.large, _xlfn.SEQUENCE(26, , 65, 1), _xlpm.all_list, _xlfn.VSTACK(_xlpm.small, _xlpm.large), _xlpm.rand_list, _xlfn.SWITCH(_xlpm.mode, 0, INDEX(_xlpm.all_list, _xlfn.RANDARRAY(_xlpm.len, , 1, COUNTA(_xlpm.all_list), TRUE)), 1, INDEX(_xlpm.small, _xlfn.RANDARRAY(_xlpm.len, , 1, COUNTA(_xlpm.small), TRUE)), 2, INDEX(_xlpm.large, _xlfn.RANDARRAY(_xlpm.len, , 1, COUNTA(_xlpm.large), TRUE))), _xlpm.output, _xlfn.CONCAT(_xlfn.BYROW(_xlpm.rand_list, _xlfn.LAMBDA(_xlpm.q, CHAR(_xlpm.q)))), _xlpm.output)))))</definedName>
@@ -435,7 +436,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="460" row="5">
+  <wetp:taskpane dockstate="right" visibility="0" width="600" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -467,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0AC6F0-0242-2F49-9114-8DA1CCE147B7}">
-  <dimension ref="B3:D25"/>
+  <dimension ref="B3:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -497,7 +498,7 @@
     <row r="4" spans="2:4">
       <c r="B4" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">RND_DIGITS(6)</f>
-        <v>810555</v>
+        <v>673212</v>
       </c>
       <c r="C4" t="e" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">RND_DIGITS(-6)</f>
@@ -525,7 +526,7 @@
     <row r="7" spans="2:4">
       <c r="B7" t="str" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">RND_MIX(6)</f>
-        <v>9&gt;}^rV</v>
+        <v>7UYBr*</v>
       </c>
       <c r="C7" t="e" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">RND_MIX(-6)</f>
@@ -553,15 +554,15 @@
     <row r="11" spans="2:4">
       <c r="B11" t="str" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">RND_STR(5,0)</f>
-        <v>AMRjK</v>
+        <v>kTvLE</v>
       </c>
       <c r="C11" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">RND_STR(5,1)</f>
-        <v>wczcy</v>
+        <v>kofns</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">RND_STR(5,2)</f>
-        <v>PBPFW</v>
+        <v>IDBDJ</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -581,71 +582,71 @@
     <row r="14" spans="2:4">
       <c r="B14" cm="1">
         <f t="array" aca="1" ref="B14:B19" ca="1">RND_UNIQUE(6)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" cm="1">
         <f t="array" aca="1" ref="C14:C22" ca="1">RND_UNIQUE(9)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D14" cm="1">
         <f t="array" aca="1" ref="D14:D25" ca="1">RND_UNIQUE(12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15">
         <f ca="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <f ca="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f ca="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16">
         <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="C16">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
       <c r="D16">
         <f ca="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17">
         <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f ca="1"/>
         <v>3</v>
       </c>
-      <c r="C17">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
       <c r="D17">
         <f ca="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18">
         <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <f ca="1"/>
         <v>1</v>
-      </c>
-      <c r="C18">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <f ca="1"/>
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -659,55 +660,65 @@
       </c>
       <c r="D19">
         <f ca="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="C20">
         <f ca="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <f ca="1"/>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="C21">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <f ca="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="C22">
         <f ca="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="D23">
         <f ca="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="D24">
         <f ca="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="D25">
         <f ca="1"/>
-        <v>11</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" cm="1">
+        <f t="array" ref="B27">RND_BY_SEED(1962)</f>
+        <v>94707702</v>
+      </c>
+      <c r="C27" cm="1">
+        <f t="array" ref="C27">RND_BY_SEED(1962)</f>
+        <v>94707702</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +728,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABcAG4AUgBOAEQAXwBEAEkARwBJAFQAUwBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIAByAGEAbgBkAG8AbQAgAHcAaABvAGwAZQAgAG4AdQBtAGIAZQByACAAdwBpAHQAaAAgAGEAIABzAHAAZQBjAGkAZgBpAGUAZAAgAG4AdQBtAGIAZQByACAAbwBmACAAZABpAGcAaQB0AHMALgBcAG4AXABuAEkAZgAgAG4AbwAgAGkAbgBwAHUAdAAgAGkAcwAgAHAAcgBvAHYAaQBkAGUAZAAgAJIhIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAA1AC4AXABuAEkAZgAgAGkAbgBwAHUAdAAgAGkAcwAgAG4AbwBuAC0AbgB1AG0AZQByAGkAYwAgAJIhIAByAGUAdAB1AHIAbgBzACAAIwBWAEEATABVAEUAIQBcAG4ASQBmACAAaQBuAHAAdQB0ACAAPAAgADEAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgAHIAZQB0AHUAcgBuAHMAIAAjAE4AVQBNACEAXABuAFwAbgBBAHIAZwB1AG0AZQBuAHQAcwA6AFwAbgAtACAAWwBsAGUAbgBdACAAKABvAHAAdABpAG8AbgBhAGwAKQAgABQgIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAaQBnAGkAdABzACAAKABtAHUAcwB0ACAAYgBlACAAbgB1AG0AZQByAGkAYwAgAGEAbgBkACAAZSIgADEAKQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAOgBcAG4ALQAgAEEAIAByAGEAbgBkAG8AbQAgAHcAaABvAGwAZQAgAG4AdQBtAGIAZQByACAAdwBpAHQAaAAgAGUAeABhAGMAdABsAHkAIAAnAGwAZQBuACcAIABkAGkAZwBpAHQAcwAuAFwAbgBcAG4ARQB4AGEAbQBwAGwAZQBzADoAXABuAC0AIABSAE4ARABfAEQASQBHAEkAVABTACgAKQAgACAAIAAgACAAIAAgAJIhIAA1AC0AZABpAGcAaQB0ACAAbgB1AG0AYgBlAHIAIAAoAGUALgBnAC4AIAA0ADkAMwAwADIAKQBcAG4ALQAgAFIATgBEAF8ARABJAEcASQBUAFMAKAAzACkAIAAgACAAIAAgACAAkiEgADMALQBkAGkAZwBpAHQAIABuAHUAbQBiAGUAcgAgACgAZQAuAGcALgAgADIAMQA4ACkAXABuAC0AIABSAE4ARABfAEQASQBHAEkAVABTACgAMQApACAAIAAgACAAIAAgAJIhIAAwABMgOQBcAG4ALQAgAFIATgBEAF8ARABJAEcASQBUAFMAKABcACIAZABvAGcAXAAiACkAIAAgAJIhIAAjAFYAQQBMAFUARQAhAFwAbgAtACAAUgBOAEQAXwBEAEkARwBJAFQAUwAoAC0AMgApACAAIAAgACAAIACSISAAIwBOAFUATQAhAFwAbgAqAC8AXABuAFwAbgBSAE4ARABfAEQASQBHAEkAVABTACAAPQAgAEwAQQBNAEIARABBACgAWwBsAGUAbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIAA1ACAAaQBmACAAbwBtAGkAdAB0AGUAZABcAG4AIAAgACAAIAAgACAAIAAgAGwAZQBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGwAZQBuACkALAAgADUALAAgAGwAZQBuACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAGgAZQBjAGsAIABmAG8AcgAgAG4AdQBtAGUAcgBpAGMAIABpAG4AcAB1AHQAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbABpAGQALAAgAEkAUwBOAFUATQBCAEUAUgAoAGwAZQBuACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABSAGEAaQBzAGUAIAAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAbgB1AG0AYgBlAHIAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAHYAYQBsAGkAZAApACwAIABTAFEAUgBUACgAXAAiAGEAXAAiACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAYQBpAHMAZQAgACMATgBVAE0AIQAgAGkAZgAgAGkAbgBwAHUAdAAgADwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABsAGUAbgAgADwAIAAxACwAIABTAFEAUgBUACgALQAxACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAATwB0AGgAZQByAHcAaQBzAGUAIABjAG8AbQBwAHUAdABlACAAYgBvAHUAbgBkAHMAIABhAG4AZAAgAHIAZQB0AHUAcgBuACAAcgBhAG4AZABvAG0AIABuAHUAbQBiAGUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBpAG4ALAAgAEkARgAoAGwAZQBuACAAPQAgADEALAAgADAALAAgADEAMAAgAF4AIAAoAGwAZQBuACAALQAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAeAAsACAASQBGACgAbABlAG4AIAA9ACAAMQAsACAAOQAsACAAMQAwACAAXgAgAGwAZQBuACAALQAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBBAE4ARABCAEUAVABXAEUARQBOACgAbQBpAG4ALAAgAG0AYQB4ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgBcAG4AUgBOAEQAXwBNAEkAWABcAG4ARwBlAG4AZQByAGEAdABlAHMAIABhACAAcgBhAG4AZABvAG0AIABzAHQAcgBpAG4AZwAgAG8AZgAgAG0AaQB4AGUAZAAgAGMAaABhAHIAYQBjAHQAZQByAHMAIAAoAGwAZQB0AHQAZQByAHMALAAgAG4AdQBtAGIAZQByAHMALAAgAHMAeQBtAGIAbwBsAHMAKQAuAFwAbgBJAGYAIABpAG4AcAB1AHQAIABpAHMAIABuAG8AbgAtAG4AdQBtAGUAcgBpAGMAIACSISAAcgBlAHQAdQByAG4AcwAgACMAVgBBAEwAVQBFACEAXABuAEkAZgAgAGkAbgBwAHUAdAAgAGkAcwAgADwAIAAxACAAIAAgACAAIAAgACAAIAAgACAAkiEgAHIAZQB0AHUAcgBuAHMAIAAjAE4AVQBNACEAXABuAEkAZgAgAG8AbQBpAHQAdABlAGQAIABvAHIAIAB6AGUAcgBvACAAIAAgACAAIAAgACAAkiEgAGQAZQBmAGEAdQBsAHQAcwAgAHQAbwAgADUAIABjAGgAYQByAGEAYwB0AGUAcgBzAC4AXABuACoALwBcAG4AXABuAFIATgBEAF8ATQBJAFgAIAA9ACAATABBAE0AQgBEAEEAKABbAGwAZQBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbABlAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbABlAG4AKQAsACAANQAsACAAbABlAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAaQBkACwAIABJAFMATgBVAE0AQgBFAFIAKABsAGUAbgApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKAB2AGEAbABpAGQAKQAsACAAUwBRAFIAVAAoAFwAIgBhAFwAIgApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABuAHUAbQBlAHIAaQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABsAGUAbgAgADwAIAAxACwAIABTAFEAUgBUACgALQAxACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgACMATgBVAE0AIQAgAGkAZgAgADwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGUAbgAsACAASQBOAFQAKABsAGUAbgApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAVAByAHUAbgBjAGEAdABlACAAdABvACAAdwBoAG8AbABlACAAbgB1AG0AYgBlAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABzAG0AYQBsAGwALAAgAFMARQBRAFUARQBOAEMARQAoADIANgAsACAALAAgADkANwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGEAcgBnAGUALAAgAFMARQBRAFUARQBOAEMARQAoADIANgAsACAALAAgADYANQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABuAHUAbQBiAGUAcgBzACwAIABTAEUAUQBVAEUATgBDAEUAKAAxADAALAAgACwAIAA0ADgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQB4AHQAcgBhAHMALAAgAHsAMQAyADYAOwAgADMAMwA7ACAANgA0ADsAIAAzADUAOwAgADMANgA7ACAAMwA3ADsAIAA5ADQAOwAgADMAOAA7ACAANAAyADsAIAA0ADAAOwAgADQAMQA7ACAAOQA1ADsAIAA0ADUAOwAgADQAMwA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANgAxADsAIAAxADIAMwA7ACAAOQAxADsAIAAxADIANQA7ACAAOQAzADsAIAAxADIANAA7ACAAOQAyADsAIAA1ADgAOwAgADUAOQA7ACAANgAwADsAIAA0ADQAOwAgADYAMgA7ACAANAA2ADsAIAA2ADMAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYQBsAGwAXwBsAGkAcwB0ACwAIABWAFMAVABBAEMASwAoAHMAbQBhAGwAbAAsACAAbABhAHIAZwBlACwAIABuAHUAbQBiAGUAcgBzACwAIABlAHgAdAByAGEAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAbgBkAF8AbABpAHMAdAAsACAASQBOAEQARQBYACgAYQBsAGwAXwBsAGkAcwB0ACwAIABSAEEATgBEAEEAUgBSAEEAWQAoAGwAZQBuACwAIAAsACAAMQAsACAAQwBPAFUATgBUAEEAKABhAGwAbABfAGwAaQBzAHQAKQAsACAAVABSAFUARQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABDAE8ATgBDAEEAVAAoAEIAWQBSAE8AVwAoAHIAYQBuAGQAXwBsAGkAcwB0ACwAIABMAEEATQBCAEQAQQAoAHEALAAgAEMASABBAFIAKABxACkAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4AXABuAC8AKgBcAG4AUgBOAEQAXwBVAE4ASQBRAFUARQBcAG4ARwBlAG4AZQByAGEAdABlAHMAIABhACAAbABpAHMAdAAgAG8AZgAgAHUAbgBpAHEAdQBlACAAcgBhAG4AZABvAG0AIABuAHUAbQBiAGUAcgBzACAAYgB5ACAAcwBoAHUAZgBmAGwAaQBuAGcAIABhACAAZwBlAG4AZQByAGEAdABlAGQAIABzAGUAcQB1AGUAbgBjAGUALgBcAG4AXABuAEkAZgAgAGEAbgB5ACAAaQBuAHAAdQB0ACAAaQBzACAAbgBvAG4ALQBuAHUAbQBlAHIAaQBjACAAkiEgACMAVgBBAEwAVQBFACEAXABuAEkAZgAgAGwAZQBuACAAPAAgADEAIABvAHIAIABzAHQAZQBwACAAPQAgADAAIAAgACAAIAAgACAAIACSISAAIwBOAFUATQAhAFwAbgBJAGYAIABvAG0AaQB0AHQAZQBkACwAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AOgAgAGwAZQBuACAAPQAgADUALAAgAHMAdABhAHIAdAAgAD0AIAAxACwAIABzAHQAZQBwACAAPQAgADEAXABuACoALwBcAG4AXABuAFIATgBEAF8AVQBOAEkAUQBVAEUAIAA9ACAATABBAE0AQgBEAEEAKABbAGwAZQBuAF0ALAAgAFsAcwB0AGEAcgB0AF0ALAAgAFsAcwB0AGUAcABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGwAZQBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGwAZQBuACkALAAgADUALAAgAGwAZQBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdABhAHIAdAAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABzAHQAYQByAHQAKQAsACAAMQAsACAAcwB0AGEAcgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdABlAHAALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwB0AGUAcAApACwAIAAxACwAIABzAHQAZQBwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABJAG4AcAB1AHQAIAB2AGEAbABpAGQAYQB0AGkAbwBuAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAaQBkACwAIABJAFMATgBVAE0AQgBFAFIAKABsAGUAbgApACAAKgAgAEkAUwBOAFUATQBCAEUAUgAoAHMAdABhAHIAdAApACAAKgAgAEkAUwBOAFUATQBCAEUAUgAoAHMAdABlAHAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgAdgBhAGwAaQBkACkALAAgAFMAUQBSAFQAKABcACIAYQBcACIAKQAsACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIwBWAEEATABVAEUAIQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATwBSACgAbABlAG4AIAA8ACAAMQAsACAAcwB0AGUAcAAgAD0AIAAwACkALAAgAFMAUQBSAFQAKAAtADEAKQAsACAAIAAgAC8ALwAgACMATgBVAE0AIQBcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARwBlAG4AZQByAGEAdABlACAAYQBuAGQAIABzAGgAdQBmAGYAbABlACAAcwBlAHEAdQBlAG4AYwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGUAbgAsACAASQBOAFQAKABsAGUAbgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABzAHQAYQByAHQALAAgAEkATgBUACgAcwB0AGEAcgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAdABlAHAALAAgAEkATgBUACgAcwB0AGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABiAGEAcwBlACwAIABTAEUAUQBVAEUATgBDAEUAKABsAGUAbgAsACAALAAgAHMAdABhAHIAdAAsACAAcwB0AGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBPAFIAVABCAFkAKABiAGEAcwBlACwAIABSAEEATgBEAEEAUgBSAEEAWQAoAGwAZQBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBcAG4ALwAqAFwAbgBSAE4ARABfAFMAVABSAFwAbgBHAGUAbgBlAHIAYQB0AGUAcwAgAGEAIAByAGEAbgBkAG8AbQAgAGEAbABwAGgAYQBiAGUAdABpAGMAIABzAHQAcgBpAG4AZwAgAG8AZgAgAHMAcABlAGMAaQBmAGkAZQBkACAAbABlAG4AZwB0AGgALgBcAG4AXABuAEEAcgBnAHUAbQBlAG4AdABzADoAXABuAC0AIABbAGwAZQBuAF0AIAAgACgAbwBwAHQAaQBvAG4AYQBsACkAIAAUICAARABlAHMAaQByAGUAZAAgAG4AdQBtAGIAZQByACAAbwBmACAAYwBoAGEAcgBhAGMAdABlAHIAcwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA1ACkAXABuAC0AIABbAG0AbwBkAGUAXQAgACgAbwBwAHQAaQBvAG4AYQBsACkAIAAUICAATABlAHQAdABlAHIAIABjAGEAcwBlADoAXABuACAAIAAgACAAMAAgAJIhIABtAGkAeABlAGQAIAAoAGQAZQBmAGEAdQBsAHQAKQBcAG4AIAAgACAAIAAxACAAkiEgAGwAbwB3AGUAcgBjAGEAcwBlACAAbwBuAGwAeQBcAG4AIAAgACAAIAAyACAAkiEgAHUAcABwAGUAcgBjAGEAcwBlACAAbwBuAGwAeQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAOgBcAG4ALQAgAEEAIABzAHQAcgBpAG4AZwAgAGMAbwBtAHAAbwBzAGUAZAAgAG8AZgAgAHIAYQBuAGQAbwBtAGwAeQAgAHMAZQBsAGUAYwB0AGUAZAAgAGwAZQB0AHQAZQByAHMALAAgAGMAYQBzAGUAIABiAGEAcwBlAGQAIABvAG4AIABtAG8AZABlAC4AXABuAFwAbgBFAHgAYQBtAHAAbABlAHMAOgBcAG4ALQAgAFIATgBEAF8AUwBUAFIAKAApACAAIAAgACAAIAAgACAAIAAgAJIhIAA1AC0AbABlAHQAdABlAHIAIABtAGkAeABlAGQALQBjAGEAcwBlACAAcwB0AHIAaQBuAGcAIAAoAGUALgBnAC4AIABcACIAYQBGAGIAWAB6AFwAIgApAFwAbgAtACAAUgBOAEQAXwBTAFQAUgAoADgALAAgADEAKQAgACAAIAAgACAAkiEgADgALQBsAGUAdAB0AGUAcgAgAGwAbwB3AGUAcgBjAGEAcwBlACAAKABlAC4AZwAuACAAXAAiAHEAZABuAHgAZQBhAG8AdABcACIAKQBcAG4ALQAgAFIATgBEAF8AUwBUAFIAKAA2ACwAIAAyACkAIAAgACAAIAAgAJIhIAA2AC0AbABlAHQAdABlAHIAIAB1AHAAcABlAHIAYwBhAHMAZQAgACgAZQAuAGcALgAgAFwAIgBIAEoATQBYAFQAWgBcACIAKQBcAG4AKgAvAFwAbgBcAG4AUgBOAEQAXwBTAFQAUgAgAD0AIABMAEEATQBCAEQAQQAoAFsAbABlAG4AXQAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgATwBSACgASQBTAE8ATQBJAFQAVABFAEQAKABtAG8AZABlACkALAAgAG0AbwBkAGUAIAA+ACAAMgApACwAIAAwACwAIABtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAZQBuACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAGwAZQBuACkALAAgAGwAZQBuACAAPQAgADAAKQAsACAANQAsACAAbABlAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAaQBkACwAIABJAFMATgBVAE0AQgBFAFIAKABsAGUAbgApACAAKgAgAEkAUwBOAFUATQBCAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgAdgBhAGwAaQBkACkALAAgAFMAUQBSAFQAKABcACIAYQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABsAGUAbgAgADwAIAAxACwAIABTAFEAUgBUACgALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABlAG4ALAAgAEkATgBUACgAbABlAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcwBtAGEAbABsACwAIABTAEUAUQBVAEUATgBDAEUAKAAyADYALAAgACwAIAA5ADcALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABhAHIAZwBlACwAIABTAEUAUQBVAEUATgBDAEUAKAAyADYALAAgACwAIAA2ADUALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYQBsAGwAXwBsAGkAcwB0ACwAIABWAFMAVABBAEMASwAoAHMAbQBhAGwAbAAsACAAbABhAHIAZwBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBuAGQAXwBsAGkAcwB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALAAgAEkATgBEAEUAWAAoAGEAbABsAF8AbABpAHMAdAAsACAAUgBBAE4ARABBAFIAUgBBAFkAKABsAGUAbgAsACAALAAgADEALAAgAEMATwBVAE4AVABBACgAYQBsAGwAXwBsAGkAcwB0ACkALAAgAFQAUgBVAEUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALAAgAEkATgBEAEUAWAAoAHMAbQBhAGwAbAAsACAAUgBBAE4ARABBAFIAUgBBAFkAKABsAGUAbgAsACAALAAgADEALAAgAEMATwBVAE4AVABBACgAcwBtAGEAbABsACkALAAgAFQAUgBVAEUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIALAAgAEkATgBEAEUAWAAoAGwAYQByAGcAZQAsACAAUgBBAE4ARABBAFIAUgBBAFkAKABsAGUAbgAsACAALAAgADEALAAgAEMATwBVAE4AVABBACgAbABhAHIAZwBlACkALAAgAFQAUgBVAEUAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEMATwBOAEMAQQBUACgAQgBZAFIATwBXACgAcgBhAG4AZABfAGwAaQBzAHQALAAgAEwAQQBNAEIARABBACgAcQAsACAAQwBIAEEAUgAoAHEAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBSAE4ARABfAEQASQBHAEkAVABTACIALAAiAFIATgBEAF8ATQBJAFgAIgAsACIAUgBOAEQAXwBVAE4ASQBRAFUARQAiACwAIgBSAE4ARABfAFMAVABSACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIAWQBNAEQAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABcAG4AUgBOAEQAXwBEAEkARwBJAFQAUwBcAG4AUgBlAHQAdQByAG4AcwAgAGEAIAByAGEAbgBkAG8AbQAgAHcAaABvAGwAZQAgAG4AdQBtAGIAZQByACAAdwBpAHQAaAAgAGEAIABzAHAAZQBjAGkAZgBpAGUAZAAgAG4AdQBtAGIAZQByACAAbwBmACAAZABpAGcAaQB0AHMALgBcAG4AXABuAEkAZgAgAG4AbwAgAGkAbgBwAHUAdAAgAGkAcwAgAHAAcgBvAHYAaQBkAGUAZAAgAJIhIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAA1AC4AXABuAEkAZgAgAGkAbgBwAHUAdAAgAGkAcwAgAG4AbwBuAC0AbgB1AG0AZQByAGkAYwAgAJIhIAByAGUAdAB1AHIAbgBzACAAIwBWAEEATABVAEUAIQBcAG4ASQBmACAAaQBuAHAAdQB0ACAAPAAgADEAIAAgACAAIAAgACAAIAAgACAAIAAgACAAkiEgAHIAZQB0AHUAcgBuAHMAIAAjAE4AVQBNACEAXABuAFwAbgBBAHIAZwB1AG0AZQBuAHQAcwA6AFwAbgAtACAAWwBsAGUAbgBdACAAKABvAHAAdABpAG8AbgBhAGwAKQAgABQgIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAaQBnAGkAdABzACAAKABtAHUAcwB0ACAAYgBlACAAbgB1AG0AZQByAGkAYwAgAGEAbgBkACAAZSIgADEAKQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAOgBcAG4ALQAgAEEAIAByAGEAbgBkAG8AbQAgAHcAaABvAGwAZQAgAG4AdQBtAGIAZQByACAAdwBpAHQAaAAgAGUAeABhAGMAdABsAHkAIAAnAGwAZQBuACcAIABkAGkAZwBpAHQAcwAuAFwAbgBcAG4ARQB4AGEAbQBwAGwAZQBzADoAXABuAC0AIABSAE4ARABfAEQASQBHAEkAVABTACgAKQAgACAAIAAgACAAIAAgAJIhIAA1AC0AZABpAGcAaQB0ACAAbgB1AG0AYgBlAHIAIAAoAGUALgBnAC4AIAA0ADkAMwAwADIAKQBcAG4ALQAgAFIATgBEAF8ARABJAEcASQBUAFMAKAAzACkAIAAgACAAIAAgACAAkiEgADMALQBkAGkAZwBpAHQAIABuAHUAbQBiAGUAcgAgACgAZQAuAGcALgAgADIAMQA4ACkAXABuAC0AIABSAE4ARABfAEQASQBHAEkAVABTACgAMQApACAAIAAgACAAIAAgAJIhIAAwABMgOQBcAG4ALQAgAFIATgBEAF8ARABJAEcASQBUAFMAKABcACIAZABvAGcAXAAiACkAIAAgAJIhIAAjAFYAQQBMAFUARQAhAFwAbgAtACAAUgBOAEQAXwBEAEkARwBJAFQAUwAoAC0AMgApACAAIAAgACAAIACSISAAIwBOAFUATQAhAFwAbgAqAC8AXABuAFwAbgBSAE4ARABfAEQASQBHAEkAVABTACAAPQAgAEwAQQBNAEIARABBACgAWwBsAGUAbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIAB0AG8AIAA1ACAAaQBmACAAbwBtAGkAdAB0AGUAZABcAG4AIAAgACAAIAAgACAAIAAgAGwAZQBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGwAZQBuACkALAAgADUALAAgAGwAZQBuACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAGgAZQBjAGsAIABmAG8AcgAgAG4AdQBtAGUAcgBpAGMAIABpAG4AcAB1AHQAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbABpAGQALAAgAEkAUwBOAFUATQBCAEUAUgAoAGwAZQBuACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABSAGEAaQBzAGUAIAAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABhACAAbgB1AG0AYgBlAHIAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAHYAYQBsAGkAZAApACwAIABTAFEAUgBUACgAXAAiAGEAXAAiACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAYQBpAHMAZQAgACMATgBVAE0AIQAgAGkAZgAgAGkAbgBwAHUAdAAgADwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABsAGUAbgAgADwAIAAxACwAIABTAFEAUgBUACgALQAxACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAATwB0AGgAZQByAHcAaQBzAGUAIABjAG8AbQBwAHUAdABlACAAYgBvAHUAbgBkAHMAIABhAG4AZAAgAHIAZQB0AHUAcgBuACAAcgBhAG4AZABvAG0AIABuAHUAbQBiAGUAcgBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBpAG4ALAAgAEkARgAoAGwAZQBuACAAPQAgADEALAAgADAALAAgADEAMAAgAF4AIAAoAGwAZQBuACAALQAgADEAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAeAAsACAASQBGACgAbABlAG4AIAA9ACAAMQAsACAAOQAsACAAMQAwACAAXgAgAGwAZQBuACAALQAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUgBBAE4ARABCAEUAVABXAEUARQBOACgAbQBpAG4ALAAgAG0AYQB4ACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgBcAG4AUgBOAEQAXwBNAEkAWABcAG4ARwBlAG4AZQByAGEAdABlAHMAIABhACAAcgBhAG4AZABvAG0AIABzAHQAcgBpAG4AZwAgAG8AZgAgAG0AaQB4AGUAZAAgAGMAaABhAHIAYQBjAHQAZQByAHMAIAAoAGwAZQB0AHQAZQByAHMALAAgAG4AdQBtAGIAZQByAHMALAAgAHMAeQBtAGIAbwBsAHMAKQAuAFwAbgBJAGYAIABpAG4AcAB1AHQAIABpAHMAIABuAG8AbgAtAG4AdQBtAGUAcgBpAGMAIACSISAAcgBlAHQAdQByAG4AcwAgACMAVgBBAEwAVQBFACEAXABuAEkAZgAgAGkAbgBwAHUAdAAgAGkAcwAgADwAIAAxACAAIAAgACAAIAAgACAAIAAgACAAkiEgAHIAZQB0AHUAcgBuAHMAIAAjAE4AVQBNACEAXABuAEkAZgAgAG8AbQBpAHQAdABlAGQAIABvAHIAIAB6AGUAcgBvACAAIAAgACAAIAAgACAAkiEgAGQAZQBmAGEAdQBsAHQAcwAgAHQAbwAgADUAIABjAGgAYQByAGEAYwB0AGUAcgBzAC4AXABuACoALwBcAG4AXABuAFIATgBEAF8ATQBJAFgAIAA9ACAATABBAE0AQgBEAEEAKABbAGwAZQBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbABlAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbABlAG4AKQAsACAANQAsACAAbABlAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAaQBkACwAIABJAFMATgBVAE0AQgBFAFIAKABsAGUAbgApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKAB2AGEAbABpAGQAKQAsACAAUwBRAFIAVAAoAFwAIgBhAFwAIgApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AIAAjAFYAQQBMAFUARQAhACAAaQBmACAAbgBvAHQAIABuAHUAbQBlAHIAaQBjAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABsAGUAbgAgADwAIAAxACwAIABTAFEAUgBUACgALQAxACkALAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwAgACMATgBVAE0AIQAgAGkAZgAgADwAIAAxAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGUAbgAsACAASQBOAFQAKABsAGUAbgApACwAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAVAByAHUAbgBjAGEAdABlACAAdABvACAAdwBoAG8AbABlACAAbgB1AG0AYgBlAHIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABzAG0AYQBsAGwALAAgAFMARQBRAFUARQBOAEMARQAoADIANgAsACAALAAgADkANwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGEAcgBnAGUALAAgAFMARQBRAFUARQBOAEMARQAoADIANgAsACAALAAgADYANQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABuAHUAbQBiAGUAcgBzACwAIABTAEUAUQBVAEUATgBDAEUAKAAxADAALAAgACwAIAA0ADgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZQB4AHQAcgBhAHMALAAgAHsAMQAyADYAOwAgADMAMwA7ACAANgA0ADsAIAAzADUAOwAgADMANgA7ACAAMwA3ADsAIAA5ADQAOwAgADMAOAA7ACAANAAyADsAIAA0ADAAOwAgADQAMQA7ACAAOQA1ADsAIAA0ADUAOwAgADQAMwA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAANgAxADsAIAAxADIAMwA7ACAAOQAxADsAIAAxADIANQA7ACAAOQAzADsAIAAxADIANAA7ACAAOQAyADsAIAA1ADgAOwAgADUAOQA7ACAANgAwADsAIAA0ADQAOwAgADYAMgA7ACAANAA2ADsAIAA2ADMAfQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYQBsAGwAXwBsAGkAcwB0ACwAIABWAFMAVABBAEMASwAoAHMAbQBhAGwAbAAsACAAbABhAHIAZwBlACwAIABuAHUAbQBiAGUAcgBzACwAIABlAHgAdAByAGEAcwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGEAbgBkAF8AbABpAHMAdAAsACAASQBOAEQARQBYACgAYQBsAGwAXwBsAGkAcwB0ACwAIABSAEEATgBEAEEAUgBSAEEAWQAoAGwAZQBuACwAIAAsACAAMQAsACAAQwBPAFUATgBUAEEAKABhAGwAbABfAGwAaQBzAHQAKQAsACAAVABSAFUARQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABDAE8ATgBDAEEAVAAoAEIAWQBSAE8AVwAoAHIAYQBuAGQAXwBsAGkAcwB0ACwAIABMAEEATQBCAEQAQQAoAHEALAAgAEMASABBAFIAKABxACkAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4AXABuAC8AKgBcAG4AUgBOAEQAXwBVAE4ASQBRAFUARQBcAG4ARwBlAG4AZQByAGEAdABlAHMAIABhACAAbABpAHMAdAAgAG8AZgAgAHUAbgBpAHEAdQBlACAAcgBhAG4AZABvAG0AIABuAHUAbQBiAGUAcgBzACAAYgB5ACAAcwBoAHUAZgBmAGwAaQBuAGcAIABhACAAZwBlAG4AZQByAGEAdABlAGQAIABzAGUAcQB1AGUAbgBjAGUALgBcAG4AXABuAEkAZgAgAGEAbgB5ACAAaQBuAHAAdQB0ACAAaQBzACAAbgBvAG4ALQBuAHUAbQBlAHIAaQBjACAAkiEgACMAVgBBAEwAVQBFACEAXABuAEkAZgAgAGwAZQBuACAAPAAgADEAIABvAHIAIABzAHQAZQBwACAAPQAgADAAIAAgACAAIAAgACAAIACSISAAIwBOAFUATQAhAFwAbgBJAGYAIABvAG0AaQB0AHQAZQBkACwAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AOgAgAGwAZQBuACAAPQAgADUALAAgAHMAdABhAHIAdAAgAD0AIAAxACwAIABzAHQAZQBwACAAPQAgADEAXABuACoALwBcAG4AXABuAFIATgBEAF8AVQBOAEkAUQBVAEUAIAA9ACAATABBAE0AQgBEAEEAKABbAGwAZQBuAF0ALAAgAFsAcwB0AGEAcgB0AF0ALAAgAFsAcwB0AGUAcABdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGwAZQBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGwAZQBuACkALAAgADUALAAgAGwAZQBuACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdABhAHIAdAAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABzAHQAYQByAHQAKQAsACAAMQAsACAAcwB0AGEAcgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMAdABlAHAALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwB0AGUAcAApACwAIAAxACwAIABzAHQAZQBwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABJAG4AcAB1AHQAIAB2AGEAbABpAGQAYQB0AGkAbwBuAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAaQBkACwAIABJAFMATgBVAE0AQgBFAFIAKABsAGUAbgApACAAKgAgAEkAUwBOAFUATQBCAEUAUgAoAHMAdABhAHIAdAApACAAKgAgAEkAUwBOAFUATQBCAEUAUgAoAHMAdABlAHAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgAdgBhAGwAaQBkACkALAAgAFMAUQBSAFQAKABcACIAYQBcACIAKQAsACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAIwBWAEEATABVAEUAIQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATwBSACgAbABlAG4AIAA8ACAAMQAsACAAcwB0AGUAcAAgAD0AIAAwACkALAAgAFMAUQBSAFQAKAAtADEAKQAsACAAIAAgAC8ALwAgACMATgBVAE0AIQBcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAARwBlAG4AZQByAGEAdABlACAAYQBuAGQAIABzAGgAdQBmAGYAbABlACAAcwBlAHEAdQBlAG4AYwBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGUAbgAsACAASQBOAFQAKABsAGUAbgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABzAHQAYQByAHQALAAgAEkATgBUACgAcwB0AGEAcgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAdABlAHAALAAgAEkATgBUACgAcwB0AGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABiAGEAcwBlACwAIABTAEUAUQBVAEUATgBDAEUAKABsAGUAbgAsACAALAAgAHMAdABhAHIAdAAsACAAcwB0AGUAcAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAAUwBPAFIAVABCAFkAKABiAGEAcwBlACwAIABSAEEATgBEAEEAUgBSAEEAWQAoAGwAZQBuACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAFwAbgBcAG4ALwAqAFwAbgBSAE4ARABfAFMAVABSAFwAbgBHAGUAbgBlAHIAYQB0AGUAcwAgAGEAIAByAGEAbgBkAG8AbQAgAGEAbABwAGgAYQBiAGUAdABpAGMAIABzAHQAcgBpAG4AZwAgAG8AZgAgAHMAcABlAGMAaQBmAGkAZQBkACAAbABlAG4AZwB0AGgALgBcAG4AXABuAEEAcgBnAHUAbQBlAG4AdABzADoAXABuAC0AIABbAGwAZQBuAF0AIAAgACgAbwBwAHQAaQBvAG4AYQBsACkAIAAUICAARABlAHMAaQByAGUAZAAgAG4AdQBtAGIAZQByACAAbwBmACAAYwBoAGEAcgBhAGMAdABlAHIAcwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAA1ACkAXABuAC0AIABbAG0AbwBkAGUAXQAgACgAbwBwAHQAaQBvAG4AYQBsACkAIAAUICAATABlAHQAdABlAHIAIABjAGEAcwBlADoAXABuACAAIAAgACAAMAAgAJIhIABtAGkAeABlAGQAIAAoAGQAZQBmAGEAdQBsAHQAKQBcAG4AIAAgACAAIAAxACAAkiEgAGwAbwB3AGUAcgBjAGEAcwBlACAAbwBuAGwAeQBcAG4AIAAgACAAIAAyACAAkiEgAHUAcABwAGUAcgBjAGEAcwBlACAAbwBuAGwAeQBcAG4AXABuAFIAZQB0AHUAcgBuAHMAOgBcAG4ALQAgAEEAIABzAHQAcgBpAG4AZwAgAGMAbwBtAHAAbwBzAGUAZAAgAG8AZgAgAHIAYQBuAGQAbwBtAGwAeQAgAHMAZQBsAGUAYwB0AGUAZAAgAGwAZQB0AHQAZQByAHMALAAgAGMAYQBzAGUAIABiAGEAcwBlAGQAIABvAG4AIABtAG8AZABlAC4AXABuAFwAbgBFAHgAYQBtAHAAbABlAHMAOgBcAG4ALQAgAFIATgBEAF8AUwBUAFIAKAApACAAIAAgACAAIAAgACAAIAAgAJIhIAA1AC0AbABlAHQAdABlAHIAIABtAGkAeABlAGQALQBjAGEAcwBlACAAcwB0AHIAaQBuAGcAIAAoAGUALgBnAC4AIABcACIAYQBGAGIAWAB6AFwAIgApAFwAbgAtACAAUgBOAEQAXwBTAFQAUgAoADgALAAgADEAKQAgACAAIAAgACAAkiEgADgALQBsAGUAdAB0AGUAcgAgAGwAbwB3AGUAcgBjAGEAcwBlACAAKABlAC4AZwAuACAAXAAiAHEAZABuAHgAZQBhAG8AdABcACIAKQBcAG4ALQAgAFIATgBEAF8AUwBUAFIAKAA2ACwAIAAyACkAIAAgACAAIAAgAJIhIAA2AC0AbABlAHQAdABlAHIAIAB1AHAAcABlAHIAYwBhAHMAZQAgACgAZQAuAGcALgAgAFwAIgBIAEoATQBYAFQAWgBcACIAKQBcAG4AKgAvAFwAbgBcAG4AUgBOAEQAXwBTAFQAUgAgAD0AIABMAEEATQBCAEQAQQAoAFsAbABlAG4AXQAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgATwBSACgASQBTAE8ATQBJAFQAVABFAEQAKABtAG8AZABlACkALAAgAG0AbwBkAGUAIAA+ACAAMgApACwAIAAwACwAIABtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAZQBuACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAGwAZQBuACkALAAgAGwAZQBuACAAPQAgADAAKQAsACAANQAsACAAbABlAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAaQBkACwAIABJAFMATgBVAE0AQgBFAFIAKABsAGUAbgApACAAKgAgAEkAUwBOAFUATQBCAEUAUgAoAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgAdgBhAGwAaQBkACkALAAgAFMAUQBSAFQAKABcACIAYQBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABsAGUAbgAgADwAIAAxACwAIABTAFEAUgBUACgALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABlAG4ALAAgAEkATgBUACgAbABlAG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcwBtAGEAbABsACwAIABTAEUAUQBVAEUATgBDAEUAKAAyADYALAAgACwAIAA5ADcALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbABhAHIAZwBlACwAIABTAEUAUQBVAEUATgBDAEUAKAAyADYALAAgACwAIAA2ADUALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYQBsAGwAXwBsAGkAcwB0ACwAIABWAFMAVABBAEMASwAoAHMAbQBhAGwAbAAsACAAbABhAHIAZwBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAYQBuAGQAXwBsAGkAcwB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALAAgAEkATgBEAEUAWAAoAGEAbABsAF8AbABpAHMAdAAsACAAUgBBAE4ARABBAFIAUgBBAFkAKABsAGUAbgAsACAALAAgADEALAAgAEMATwBVAE4AVABBACgAYQBsAGwAXwBsAGkAcwB0ACkALAAgAFQAUgBVAEUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALAAgAEkATgBEAEUAWAAoAHMAbQBhAGwAbAAsACAAUgBBAE4ARABBAFIAUgBBAFkAKABsAGUAbgAsACAALAAgADEALAAgAEMATwBVAE4AVABBACgAcwBtAGEAbABsACkALAAgAFQAUgBVAEUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADIALAAgAEkATgBEAEUAWAAoAGwAYQByAGcAZQAsACAAUgBBAE4ARABBAFIAUgBBAFkAKABsAGUAbgAsACAALAAgADEALAAgAEMATwBVAE4AVABBACgAbABhAHIAZwBlACkALAAgAFQAUgBVAEUAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEMATwBOAEMAQQBUACgAQgBZAFIATwBXACgAcgBhAG4AZABfAGwAaQBzAHQALAAgAEwAQQBNAEIARABBACgAcQAsACAAQwBIAEEAUgAoAHEAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgBcAG4AUgBOAEQAXwBCAFkAXwBTAEUARQBEAFwAbgBHAGUAbgBlAHIAYQB0AGUAcwAgAGEAIABkAGUAdABlAHIAbQBpAG4AaQBzAHQAaQBjACAAcABzAGUAdQBkAG8ALQByAGEAbgBkAG8AbQAgAG4AdQBtAGIAZQByACAAdQBzAGkAbgBnACAATABlAGgAbQBlAHIAIABSAE4ARwAgACgAbQBvAGQAdQBsAG8AIAAyAF4AMwAxABIiMQApAC4AXABuAFwAbgBBAHIAZwB1AG0AZQBuAHQAcwA6AFwAbgAtACAAcwBlAGUAZAAgABQgIABBACAAbgB1AG0AZQByAGkAYwAgAHMAZQBlAGQAIAAoAHMAaABvAHUAbABkACAAYgBlACAAPgAgADAAIABhAG4AZAAgADwAIAAyAF4AMwAxABIiMQApAFwAbgBcAG4AUgBlAHQAdQByAG4AcwA6AFwAbgAtACAAQQAgAHIAZQBwAHIAbwBkAHUAYwBpAGIAbABlACAAcABzAGUAdQBkAG8ALQByAGEAbgBkAG8AbQAgAHYAYQBsAHUAZQAgAGIAZQB0AHcAZQBlAG4AIAAxACAAYQBuAGQAIAAyACwAMQA0ADcALAA0ADgAMwAsADYANAA2AFwAbgBcAG4AUAByAG8AcABlAHIAdABpAGUAcwA6AFwAbgAtACAAVABoAGUAIABzAGEAbQBlACAAaQBuAHAAdQB0ACAAcwBlAGUAZAAgAHcAaQBsAGwAIABhAGwAdwBhAHkAcwAgAHIAZQB0AHUAcgBuACAAdABoAGUAIABzAGEAbQBlACAAbwB1AHQAcAB1AHQALgBcAG4ALQAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIAB0AGUAcwB0AGkAbgBnACwAIAByAGUAcAByAG8AZAB1AGMAaQBiAGwAZQAgAHMAaQBtAHUAbABhAHQAaQBvAG4AcwAsACAAbwByACAAZABlAHQAZQByAG0AaQBuAGkAcwB0AGkAYwAgAHIAYQBuAGQAbwBtACAAdwBvAHIAawBmAGwAbwB3AHMALgBcAG4AXABuAEUAeABhAG0AcABsAGUAOgBcAG4ALQAgAFIATgBEAF8AQgBZAF8AUwBFAEUARAAoADEAMgAzADQANQApACAAkiEgADUAOQA1ADkAMAA1ADQAOQA1AFwAbgAqAC8AXABuAFwAbgBSAE4ARABfAEIAWQBfAFMARQBFAEQAIAA9ACAATABBAE0AQgBEAEEAKABzAGUAZQBkACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABNAE8ARAAoADQAOAAyADcAMQAgACoAIABzAGUAZQBkACwAIAAyAF4AMwAxACAALQAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIAUgBOAEQAXwBEAEkARwBJAFQAUwAiACwAIgBSAE4ARABfAE0ASQBYACIALAAiAFIATgBEAF8AVQBOAEkAUQBVAEUAIgAsACIAUgBOAEQAXwBTAFQAUgAiACwAIgBSAE4ARABfAEIAWQBfAFMARQBFAEQAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBZAE0ARAAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
